--- a/CashFlow/KDP_cashflow.xlsx
+++ b/CashFlow/KDP_cashflow.xlsx
@@ -74,8 +74,8 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="27.500000000000004"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="15.400000000000002"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="15.400000000000002"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="15.400000000000002"/>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>3331000000.0</v>
+        <v>-146000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3222000000.0</v>
+        <v>-107000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>2505000000.0</v>
+        <v>-75000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1561000000.0</v>
+        <v>-69000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>744000000.0</v>
+        <v>-26000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-24000000.0</v>
@@ -1042,19 +1042,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>11228000000.0</v>
+        <v>3872000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>10595000000.0</v>
+        <v>3901000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>6877000000.0</v>
+        <v>3799000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>7198000000.0</v>
+        <v>843000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>3946000000.0</v>
+        <v>858000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>523000000.0</v>
